--- a/results/Auto/genero-m1_es_el_más_adjetivootros-m2_que_he_conocido.xlsx
+++ b/results/Auto/genero-m1_es_el_más_adjetivootros-m2_que_he_conocido.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002450031461194158</v>
+        <v>5.229841004705804e-10</v>
       </c>
       <c r="E2" t="n">
         <v>0.0001771833776729181</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000136021088110283</v>
+        <v>1.46335527029251e-10</v>
       </c>
       <c r="E3" t="n">
         <v>1.426604376320029e-05</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02262482047080994</v>
+        <v>3.488539901397303e-09</v>
       </c>
       <c r="E4" t="n">
         <v>0.0004649908223655075</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02079274505376816</v>
+        <v>2.736928461644084e-10</v>
       </c>
       <c r="E5" t="n">
         <v>0.0004172522167209536</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002260867273434997</v>
+        <v>4.859798674594629e-10</v>
       </c>
       <c r="E6" t="n">
         <v>2.61568548012292e-05</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003138134023174644</v>
+        <v>1.990561138143221e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.001151025760918856</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002941382117569447</v>
+        <v>8.062553291665608e-08</v>
       </c>
       <c r="E8" t="n">
         <v>0.001043449388816953</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0044728834182024</v>
+        <v>2.70973913529815e-07</v>
       </c>
       <c r="E9" t="n">
         <v>0.0003783839056268334</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009331272915005684</v>
+        <v>7.415634684093675e-08</v>
       </c>
       <c r="E10" t="n">
         <v>0.001630514161661267</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004451809916645288</v>
+        <v>1.813654115778718e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.01419688202440739</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001847098348662257</v>
+        <v>4.759186933434023e-10</v>
       </c>
       <c r="E12" t="n">
         <v>0.0001621403207536787</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003296346170827746</v>
+        <v>1.116526315847466e-09</v>
       </c>
       <c r="E13" t="n">
         <v>5.801156294182874e-05</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00243531446903944</v>
+        <v>1.718073461276504e-09</v>
       </c>
       <c r="E14" t="n">
         <v>0.0002006179129239172</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00156773382332176</v>
+        <v>8.235322468408413e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.0005389198195189238</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003001621691510081</v>
+        <v>1.008925991641263e-07</v>
       </c>
       <c r="E16" t="n">
         <v>0.0007396001601591706</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004329545889049768</v>
+        <v>9.983251203493637e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.005863248836249113</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005338340066373348</v>
+        <v>1.75430542981303e-07</v>
       </c>
       <c r="E18" t="n">
         <v>0.003069904865697026</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001494403462857008</v>
+        <v>1.032215095619904e-07</v>
       </c>
       <c r="E19" t="n">
         <v>0.00366531522013247</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01268705911934376</v>
+        <v>7.820116110224262e-09</v>
       </c>
       <c r="E20" t="n">
         <v>0.001341230585239828</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002285056514665484</v>
+        <v>5.060088348329828e-09</v>
       </c>
       <c r="E21" t="n">
         <v>0.004910412710160017</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00229155202396214</v>
+        <v>4.864246960778473e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.001548181986436248</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001224279752932489</v>
+        <v>3.700197837019914e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.0002136340481229126</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002932770643383265</v>
+        <v>1.307079422474544e-08</v>
       </c>
       <c r="E24" t="n">
         <v>0.001052546431310475</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002861505141481757</v>
+        <v>8.816530794319988e-08</v>
       </c>
       <c r="E25" t="n">
         <v>0.0001114204278565012</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00333326612599194</v>
+        <v>9.893532215698997e-09</v>
       </c>
       <c r="E26" t="n">
         <v>0.0004039045888930559</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001795612392015755</v>
+        <v>6.054284540368826e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0006682624807581306</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.007239148020744324</v>
+        <v>8.013230257120085e-08</v>
       </c>
       <c r="E28" t="n">
         <v>3.571639172150753e-05</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003091907128691673</v>
+        <v>2.880052862863636e-09</v>
       </c>
       <c r="E29" t="n">
         <v>0.001473701442591846</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002190623199567199</v>
+        <v>1.375554226079601e-09</v>
       </c>
       <c r="E30" t="n">
         <v>0.0003033236134797335</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001556709641590714</v>
+        <v>1.388188008988323e-09</v>
       </c>
       <c r="E31" t="n">
         <v>3.02843709505396e-05</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008971421979367733</v>
+        <v>7.064429485836854e-09</v>
       </c>
       <c r="E32" t="n">
         <v>0.003071321407333016</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002416227012872696</v>
+        <v>5.851089923680775e-08</v>
       </c>
       <c r="E33" t="n">
         <v>0.00159536674618721</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007987347431480885</v>
+        <v>7.675812696561479e-08</v>
       </c>
       <c r="E34" t="n">
         <v>0.002175008645281196</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00393740925937891</v>
+        <v>6.304661681610924e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.000792182341683656</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004907400347292423</v>
+        <v>8.15447336321995e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.0002678668533917516</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003361922455951571</v>
+        <v>3.735992493147933e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.001287942519411445</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002507060999050736</v>
+        <v>9.505723852498704e-08</v>
       </c>
       <c r="E38" t="n">
         <v>0.0007960399962030351</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.007891885004937649</v>
+        <v>1.090263452852014e-07</v>
       </c>
       <c r="E39" t="n">
         <v>0.0004139941593166441</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006931450217962265</v>
+        <v>8.710060228622751e-09</v>
       </c>
       <c r="E40" t="n">
         <v>0.0007596336072310805</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002698355820029974</v>
+        <v>1.523859260998961e-08</v>
       </c>
       <c r="E41" t="n">
         <v>6.114222196629271e-05</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006613863632082939</v>
+        <v>5.122766211229646e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.001394459628500044</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002999624703079462</v>
+        <v>1.526560566844637e-07</v>
       </c>
       <c r="E43" t="n">
         <v>0.0001963295071618631</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005110134370625019</v>
+        <v>1.889040035507605e-08</v>
       </c>
       <c r="E44" t="n">
         <v>0.01180494297295809</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005467615555971861</v>
+        <v>3.239367885043976e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0.002693728543817997</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004941722843796015</v>
+        <v>6.696502907743707e-08</v>
       </c>
       <c r="E46" t="n">
         <v>0.0005955512751825154</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0008568199118599296</v>
+        <v>1.10978630729619e-08</v>
       </c>
       <c r="E47" t="n">
         <v>8.151627116603777e-05</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.009071050211787224</v>
+        <v>3.049095553819825e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.00150281866081059</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006992191076278687</v>
+        <v>7.809771318534331e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.001792948693037033</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004244011361151934</v>
+        <v>4.44855672299127e-08</v>
       </c>
       <c r="E50" t="n">
         <v>0.001314206048846245</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002709025517106056</v>
+        <v>2.120867037547214e-08</v>
       </c>
       <c r="E51" t="n">
         <v>0.0001098877837648615</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004476083908230066</v>
+        <v>9.65496553817502e-08</v>
       </c>
       <c r="E52" t="n">
         <v>0.0001686915202299133</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003376005683094263</v>
+        <v>2.560487288860713e-08</v>
       </c>
       <c r="E53" t="n">
         <v>0.001989055657759309</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.004187721759080887</v>
+        <v>1.04899653408097e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.002127846470102668</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007310858462005854</v>
+        <v>7.060852169615828e-08</v>
       </c>
       <c r="E55" t="n">
         <v>0.0003125282528344542</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.008078774437308311</v>
+        <v>1.05099964287092e-07</v>
       </c>
       <c r="E56" t="n">
         <v>0.0008176389965228736</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.004962627775967121</v>
+        <v>6.986295630895256e-08</v>
       </c>
       <c r="E57" t="n">
         <v>0.0002348898997297511</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.002315378515049815</v>
+        <v>6.833490573399104e-08</v>
       </c>
       <c r="E58" t="n">
         <v>0.01821891590952873</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00375212193466723</v>
+        <v>1.070636699296301e-07</v>
       </c>
       <c r="E59" t="n">
         <v>0.001560521428473294</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004246177617460489</v>
+        <v>8.964820352730385e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.001525931991636753</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003859701799228787</v>
+        <v>6.326309254234275e-09</v>
       </c>
       <c r="E61" t="n">
         <v>0.0004237365501467139</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00305730989202857</v>
+        <v>5.137341574368293e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.0001328185462625697</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00569111667573452</v>
+        <v>2.287822375990345e-08</v>
       </c>
       <c r="E63" t="n">
         <v>0.0007233191281557083</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004556329920887947</v>
+        <v>7.385403399950974e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.0007212010677903891</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0120982863008976</v>
+        <v>2.91869262092348e-09</v>
       </c>
       <c r="E65" t="n">
         <v>0.0008737152675166726</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008006189949810505</v>
+        <v>5.819276172047694e-09</v>
       </c>
       <c r="E66" t="n">
         <v>0.0002898718230426311</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006847168318927288</v>
+        <v>8.687270991458718e-08</v>
       </c>
       <c r="E67" t="n">
         <v>0.0003209971182513982</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.001677606254816055</v>
+        <v>1.761461554394828e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.0007089882856234908</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.006576701998710632</v>
+        <v>5.314794293553859e-08</v>
       </c>
       <c r="E69" t="n">
         <v>0.0002052865456789732</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00513077387586236</v>
+        <v>6.249556872006679e-09</v>
       </c>
       <c r="E70" t="n">
         <v>4.733723108074628e-05</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.004256876185536385</v>
+        <v>3.944953164136678e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.0003654478350654244</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002637154189869761</v>
+        <v>7.021519365935092e-09</v>
       </c>
       <c r="E72" t="n">
         <v>0.00105943123344332</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00184730882756412</v>
+        <v>7.503535925934557e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.001052915584295988</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001953956671059132</v>
+        <v>1.340913247105391e-08</v>
       </c>
       <c r="E74" t="n">
         <v>0.000430448999395594</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0007682215655222535</v>
+        <v>1.121754777955175e-08</v>
       </c>
       <c r="E75" t="n">
         <v>0.0002916580124292523</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001971933990716934</v>
+        <v>3.445838459015249e-08</v>
       </c>
       <c r="E76" t="n">
         <v>4.308212737669237e-05</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004102610051631927</v>
+        <v>2.038240243251721e-09</v>
       </c>
       <c r="E77" t="n">
         <v>0.0005352855077944696</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002932770643383265</v>
+        <v>1.307079422474544e-08</v>
       </c>
       <c r="E78" t="n">
         <v>0.001052546431310475</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001079179462976754</v>
+        <v>1.419139028513428e-08</v>
       </c>
       <c r="E79" t="n">
         <v>0.001203302294015884</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004480479750782251</v>
+        <v>2.129502263414906e-07</v>
       </c>
       <c r="E80" t="n">
         <v>0.0005595957627519965</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005298657342791557</v>
+        <v>5.257053459217786e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0002325586683582515</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01037190575152636</v>
+        <v>2.037260884435454e-07</v>
       </c>
       <c r="E82" t="n">
         <v>0.003731827717274427</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00318311364389956</v>
+        <v>1.055024512197633e-07</v>
       </c>
       <c r="E83" t="n">
         <v>0.00249613169580698</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001795612392015755</v>
+        <v>6.054284540368826e-08</v>
       </c>
       <c r="E84" t="n">
         <v>0.0006682624807581306</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00452087027952075</v>
+        <v>2.949084887404751e-08</v>
       </c>
       <c r="E85" t="n">
         <v>9.753493941389024e-05</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003510392736643553</v>
+        <v>8.35979321323066e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.0004612081102095544</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005043717566877604</v>
+        <v>3.619992838821418e-08</v>
       </c>
       <c r="E87" t="n">
         <v>0.009628265164792538</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002934755990281701</v>
+        <v>3.815187454847546e-08</v>
       </c>
       <c r="E88" t="n">
         <v>0.001197786186821759</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005479650106281042</v>
+        <v>2.332051440845362e-09</v>
       </c>
       <c r="E89" t="n">
         <v>0.002372021554037929</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01136631332337856</v>
+        <v>8.382190941347289e-08</v>
       </c>
       <c r="E90" t="n">
         <v>0.001774856122210622</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.001003564218990505</v>
+        <v>2.230896534172189e-08</v>
       </c>
       <c r="E91" t="n">
         <v>0.0001912216685013846</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001708477851934731</v>
+        <v>8.099325654598033e-09</v>
       </c>
       <c r="E92" t="n">
         <v>3.765595829463564e-05</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.005708418320864439</v>
+        <v>7.385067846144011e-08</v>
       </c>
       <c r="E93" t="n">
         <v>0.0006217146292328835</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.005164955742657185</v>
+        <v>1.769040913757181e-08</v>
       </c>
       <c r="E94" t="n">
         <v>0.0007130432059057057</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.008417509496212006</v>
+        <v>8.210563784416536e-09</v>
       </c>
       <c r="E95" t="n">
         <v>0.00143394572660327</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.005034970585256815</v>
+        <v>6.406180919071858e-09</v>
       </c>
       <c r="E96" t="n">
         <v>0.0002621951862238348</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002418919699266553</v>
+        <v>4.935444497533581e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.003547058207914233</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004076401703059673</v>
+        <v>6.849423783705788e-08</v>
       </c>
       <c r="E98" t="n">
         <v>0.001103915390558541</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.003336857073009014</v>
+        <v>8.52261106132346e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.004147077444940805</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002489775186404586</v>
+        <v>4.971551703647492e-08</v>
       </c>
       <c r="E100" t="n">
         <v>0.0006392350187525153</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005358697846531868</v>
+        <v>2.510093288776716e-08</v>
       </c>
       <c r="E101" t="n">
         <v>0.004734016954898834</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
